--- a/multispecific_antibodies/all_antibody_sasa_chains.xlsx
+++ b/multispecific_antibodies/all_antibody_sasa_chains.xlsx
@@ -3844,7 +3844,7 @@
         <v>231</v>
       </c>
       <c r="F33" t="n">
-        <v>25672.33</v>
+        <v>25672.32</v>
       </c>
       <c r="G33" t="n">
         <v>8.56</v>
@@ -30115,7 +30115,7 @@
         <v>9.19</v>
       </c>
       <c r="H288" t="n">
-        <v>-0.23</v>
+        <v>-0.22</v>
       </c>
       <c r="I288" t="n">
         <v>0.53</v>

--- a/multispecific_antibodies/all_antibody_sasa_chains.xlsx
+++ b/multispecific_antibodies/all_antibody_sasa_chains.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$AE$472</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -430,8 +428,7 @@
   <dimension ref="A1:AE472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -49140,7 +49137,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE472"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>